--- a/trust/StructureDefinition-HCert.xlsx
+++ b/trust/StructureDefinition-HCert.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T21:35:55+00:00</t>
+    <t>2024-04-12T08:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>WHO (http://who.int)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -81,7 +81,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Logical Model for the HCERT</t>
+    <t xml:space="preserve">Logical Model for the HCERT
+The full data structure and encoding mechanisms for HCERT are defined here: [Electronic Health Certificate Specification](/smart-trust/hcert_spec.html)
+An HCERT is claim -260 within the [CBOR Web Token (CWT) Claim](https://www.rfc-editor.org/rfc/rfc8392.html).
+Note for subclaims:
+- subclaims 0 and above are reserved by WHO to be assigned, a new sub claim can be requested for by requesting to create a new trust domain
+- subclaims for negative integer values are for development purposes and are free to use
+- While this logical model mentions assigned subclaims (below), the ones listed in the Electronic Health Certificate Specification are considered authoritative
+</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -229,9 +236,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -250,7 +254,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>HCert.hcert</t>
+    <t>HCert.1</t>
   </si>
   <si>
     <t>1</t>
@@ -263,7 +267,7 @@
     <t>HCERT EU DCC</t>
   </si>
   <si>
-    <t>HCert.ddccvs</t>
+    <t>HCert.3</t>
   </si>
   <si>
     <t xml:space="preserve">DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet.VS}
@@ -276,7 +280,7 @@
     <t>DDCC Vaccination claim (PROPOSED)</t>
   </si>
   <si>
-    <t>HCert.ddcctr</t>
+    <t>HCert.4</t>
   </si>
   <si>
     <t xml:space="preserve">DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet.TR}
@@ -289,7 +293,7 @@
     <t>DDCC Test Result claim (PROPOSED)</t>
   </si>
   <si>
-    <t>HCert.shl</t>
+    <t>HCert.5</t>
   </si>
   <si>
     <t xml:space="preserve">http://smart.who.int/ips-pilgrimage/StructureDefinition/SmartHealthLink
@@ -300,19 +304,6 @@
   </si>
   <si>
     <t>SMART Health Link (PROPOSED)</t>
-  </si>
-  <si>
-    <t>HCert.ips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundle {http://hl7.org/fhir/uv/ips/StructureDefinition/Bundle-uv-ips}
-</t>
-  </si>
-  <si>
-    <t>IPS</t>
-  </si>
-  <si>
-    <t>IPS Bundle (EXAMPLE)</t>
   </si>
 </sst>
 </file>
@@ -617,7 +608,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -626,8 +617,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.26953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.05078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.05078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -657,11 +648,10 @@
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="13.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="11.55859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -773,9 +763,6 @@
       <c r="AJ1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AK1" t="s" s="1">
-        <v>72</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -786,26 +773,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -816,583 +803,465 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="S2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG2" t="s" s="2">
+      <c r="AH2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L3" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="M3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG3" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="S3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF3" t="s" s="2">
+      <c r="AH3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="S4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG4" t="s" s="2">
+      <c r="AH4" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AH4" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="S5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG5" t="s" s="2">
+      <c r="AH5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AH5" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="S6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AG6" t="s" s="2">
+      <c r="AH6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AH6" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/trust/StructureDefinition-HCert.xlsx
+++ b/trust/StructureDefinition-HCert.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T08:01:09+00:00</t>
+    <t>2024-04-25T23:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,14 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Logical Model for the HCERT
-The full data structure and encoding mechanisms for HCERT are defined here: [Electronic Health Certificate Specification](/smart-trust/hcert_spec.html)
-An HCERT is claim -260 within the [CBOR Web Token (CWT) Claim](https://www.rfc-editor.org/rfc/rfc8392.html).
-Note for subclaims:
-- subclaims 0 and above are reserved by WHO to be assigned, a new sub claim can be requested for by requesting to create a new trust domain
-- subclaims for negative integer values are for development purposes and are free to use
-- While this logical model mentions assigned subclaims (below), the ones listed in the Electronic Health Certificate Specification are considered authoritative
-</t>
+    <t>Logical Model for the HCERT</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -296,14 +289,14 @@
     <t>HCert.5</t>
   </si>
   <si>
-    <t xml:space="preserve">http://smart.who.int/ips-pilgrimage/StructureDefinition/SmartHealthLink
+    <t xml:space="preserve">http://smart.who.int/trust/StructureDefinition/SmartHealthLink
 </t>
   </si>
   <si>
     <t>SMART Health Link claim</t>
   </si>
   <si>
-    <t>SMART Health Link (PROPOSED)</t>
+    <t>SMART Health Link</t>
   </si>
 </sst>
 </file>

--- a/trust/StructureDefinition-HCert.xlsx
+++ b/trust/StructureDefinition-HCert.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.3</t>
+    <t>1.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T23:34:44+00:00</t>
+    <t>2024-11-04T12:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
     <t>HCert.3</t>
   </si>
   <si>
-    <t xml:space="preserve">DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet.VS}
+    <t xml:space="preserve">http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSetVS}
 </t>
   </si>
   <si>
@@ -276,7 +276,7 @@
     <t>HCert.4</t>
   </si>
   <si>
-    <t xml:space="preserve">DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet.TR}
+    <t xml:space="preserve">http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSet {http://smart.who.int/ddcc/StructureDefinition/DDCCCoreDataSetTR}
 </t>
   </si>
   <si>
@@ -297,6 +297,19 @@
   </si>
   <si>
     <t>SMART Health Link</t>
+  </si>
+  <si>
+    <t>HCert.-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://smart.who.int/icvp/StructureDefinition/DVCPayload
+</t>
+  </si>
+  <si>
+    <t>DVC</t>
+  </si>
+  <si>
+    <t>Digital Vaccination Certificate (Proposed)</t>
   </si>
 </sst>
 </file>
@@ -601,7 +614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -610,8 +623,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.05078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.05078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.71484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.71484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -620,7 +633,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="124.359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1257,6 +1270,106 @@
         <v>72</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/trust/StructureDefinition-HCert.xlsx
+++ b/trust/StructureDefinition-HCert.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.4</t>
+    <t>1.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-04T12:37:06+00:00</t>
+    <t>2024-12-19T12:46:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/trust/StructureDefinition-HCert.xlsx
+++ b/trust/StructureDefinition-HCert.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.6</t>
+    <t>1.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T12:46:28+00:00</t>
+    <t>2024-11-04T12:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/trust/StructureDefinition-HCert.xlsx
+++ b/trust/StructureDefinition-HCert.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.4</t>
+    <t>1.1.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-04T12:37:06+00:00</t>
+    <t>2024-12-20T06:07:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/trust/StructureDefinition-HCert.xlsx
+++ b/trust/StructureDefinition-HCert.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-02T15:21:33+02:00</t>
+    <t>2025-10-27T08:38:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -250,9 +247,6 @@
     <t>Base</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>HCert.1</t>
   </si>
   <si>
@@ -299,10 +293,23 @@
 </t>
   </si>
   <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>URI of the Smart Health Link.  Of the form 'shlink:/eyJ1cmwiOiJodHRwczovL2Vo....'</t>
+    <t>VHL</t>
+  </si>
+  <si>
+    <t>URI of a Verifiable Health Link.  Of the form 'vhlink:/eyJ1cmwiOiJodHRwczovL2Vo....'</t>
+  </si>
+  <si>
+    <t>HCert.-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://smart.who.int/trust-phw/StructureDefinition/DVC
+</t>
+  </si>
+  <si>
+    <t>DVC</t>
+  </si>
+  <si>
+    <t>Digital Vaccination Certificate (Proposed)</t>
   </si>
 </sst>
 </file>
@@ -607,7 +614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -616,42 +623,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.8515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.8515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.47265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="106.61328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.05859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.91015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -763,9 +769,6 @@
       <c r="AJ1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AK1" t="s" s="1">
-        <v>72</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -776,26 +779,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -806,480 +809,565 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="S2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG2" t="s" s="2">
+      <c r="AH2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="M3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG3" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="S3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="S4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG4" t="s" s="2">
+      <c r="AH4" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AH4" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="H5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="S5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG5" t="s" s="2">
+      <c r="AH5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AH5" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AI5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="S6" t="s" s="2">
+      <c r="AH6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="T6" t="s" s="2">
+      <c r="G7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG7" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="U6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AG6" t="s" s="2">
+      <c r="AH7" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AH6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>73</v>
+      <c r="AI7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
